--- a/Assignment-2/0184_Rajan - Complexity_Chart.xlsx
+++ b/Assignment-2/0184_Rajan - Complexity_Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Atom\UCA_CLASS\Assignment-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2612BB98-E06F-4C8A-97BE-5B2C1998B819}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FECD04C-DEF5-4B01-9241-CA009E7D5DA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart" sheetId="1" r:id="rId1"/>
@@ -186,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -194,14 +194,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -234,6 +235,39 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Bubble</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Sort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -322,7 +356,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$N$3:$N$11</c:f>
+              <c:f>Data!$R$3:$R$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -416,7 +450,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$O$3:$O$11</c:f>
+              <c:f>Data!$S$3:$S$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -510,7 +544,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$P$3:$P$11</c:f>
+              <c:f>Data!$T$3:$T$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -552,7 +586,1280 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1169673520"/>
+        <c:axId val="1169671856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1169673520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1169671856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="10"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1169671856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Time Taken</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1169673520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Selection</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> Sort</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Random</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>187051</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>410534</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524152</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1574120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1259910</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2837061</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2088368</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3536109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D60-4B0F-B9CD-C960ED4EBB23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Sorted</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$C$3:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>188378</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>493295</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>838208</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1557496</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1617118</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2392909</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3264628</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3481383</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4D60-4B0F-B9CD-C960ED4EBB23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Reversely Sorted</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$3:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>181277</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>277785</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>709740</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1275996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2223850</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1993924</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3175938</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3678248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4D60-4B0F-B9CD-C960ED4EBB23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1169673520"/>
+        <c:axId val="1169671856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1169673520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1169671856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="10"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1169671856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Time Taken</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1169673520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Insertion</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> Sort</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Random</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$F$3:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125622</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>253200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>329901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>533623</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>569476</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>901232</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2273189</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1941174</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E964-4C8E-B1EE-F1A08D0BD493}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Sorted</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$G$3:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E964-4C8E-B1EE-F1A08D0BD493}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Reversely Sorted</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$H$3:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>230993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>420251</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>984333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1244286</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1528712</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2382167</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3954921</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4124578</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E964-4C8E-B1EE-F1A08D0BD493}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -858,6 +2165,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1374,20 +2761,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>253365</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1409,6 +3828,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>937260</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B684EA4-0C98-4844-A0E4-E2BA90142ED3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B86457B9-C2DB-467E-A6FC-749C7838C6A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1617,8 +4112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2637,10 +5132,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2648,52 +5143,58 @@
     <col min="1" max="1" width="14.44140625" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="8.5546875" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" customWidth="1"/>
-    <col min="10" max="11" width="7.88671875" customWidth="1"/>
-    <col min="12" max="12" width="7.5546875" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="14" width="7.88671875" customWidth="1"/>
+    <col min="15" max="15" width="7.5546875" customWidth="1"/>
+    <col min="16" max="17" width="8.88671875" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" customWidth="1"/>
+    <col min="19" max="19" width="9.5546875" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="9" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="9" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
+    <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2703,33 +5204,27 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="M2" s="1"/>
       <c r="N2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2739,299 +5234,463 @@
       <c r="P2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="2">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2">
         <v>0</v>
       </c>
-      <c r="O3" s="2">
+      <c r="S3" s="2">
         <v>0</v>
       </c>
-      <c r="P3" s="2">
+      <c r="T3" s="2">
         <v>0</v>
       </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>8000</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="B4" s="4">
+        <v>187051</v>
+      </c>
+      <c r="C4" s="4">
+        <v>188378</v>
+      </c>
+      <c r="D4" s="4">
+        <v>181277</v>
+      </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="F4" s="4">
+        <v>125622</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>230993</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="4">
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4">
         <v>179442</v>
       </c>
-      <c r="O4" s="4">
+      <c r="S4" s="4">
         <v>83518</v>
       </c>
-      <c r="P4" s="4">
+      <c r="T4" s="4">
         <v>177691</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>12000</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="B5" s="5">
+        <v>410534</v>
+      </c>
+      <c r="C5" s="5">
+        <v>493295</v>
+      </c>
+      <c r="D5" s="5">
+        <v>277785</v>
+      </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="F5" s="5">
+        <v>253200</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>420251</v>
+      </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="5">
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5">
         <v>835975</v>
       </c>
-      <c r="O5" s="5">
+      <c r="S5" s="5">
         <v>399945</v>
       </c>
-      <c r="P5" s="5">
+      <c r="T5" s="5">
         <v>655305</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>16000</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="B6" s="5">
+        <v>524152</v>
+      </c>
+      <c r="C6" s="5">
+        <v>838208</v>
+      </c>
+      <c r="D6" s="5">
+        <v>709740</v>
+      </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="5">
+        <v>329901</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>984333</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="5">
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5">
         <v>1531129</v>
       </c>
-      <c r="O6" s="5">
+      <c r="S6" s="5">
         <v>650083</v>
       </c>
-      <c r="P6" s="5">
+      <c r="T6" s="5">
         <v>1112628</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>20000</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="B7" s="5">
+        <v>1574120</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1557496</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1275996</v>
+      </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="F7" s="5">
+        <v>533623</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1244286</v>
+      </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="5">
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5">
         <v>2435556</v>
       </c>
-      <c r="O7" s="5">
+      <c r="S7" s="5">
         <v>1046456</v>
       </c>
-      <c r="P7" s="5">
+      <c r="T7" s="5">
         <v>1848544</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>24000</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="5">
+        <v>1259910</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1617118</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2223850</v>
+      </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="F8" s="5">
+        <v>569476</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1528712</v>
+      </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="5">
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5">
         <v>3597642</v>
       </c>
-      <c r="O8" s="5">
+      <c r="S8" s="5">
         <v>1492310</v>
       </c>
-      <c r="P8" s="5">
+      <c r="T8" s="5">
         <v>2640783</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>28000</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="5">
+        <v>2837061</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2392909</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1993924</v>
+      </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="F9" s="5">
+        <v>901232</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2382167</v>
+      </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="5">
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5">
         <v>4964485</v>
       </c>
-      <c r="O9" s="5">
+      <c r="S9" s="5">
         <v>2044405</v>
       </c>
-      <c r="P9" s="5">
+      <c r="T9" s="5">
         <v>3561974</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>32000</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="5">
+        <v>2088368</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3264628</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3175938</v>
+      </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="F10" s="5">
+        <v>2273189</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3954921</v>
+      </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="5">
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5">
         <v>6538620</v>
       </c>
-      <c r="O10" s="5">
+      <c r="S10" s="5">
         <v>2657627</v>
       </c>
-      <c r="P10" s="5">
+      <c r="T10" s="5">
         <v>4732814</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>36000</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="5">
+        <v>3536109</v>
+      </c>
+      <c r="C11" s="5">
+        <v>3481383</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3678248</v>
+      </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="F11" s="5">
+        <v>1941174</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>4124578</v>
+      </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="5">
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5">
         <v>8142508</v>
       </c>
-      <c r="O11" s="5">
+      <c r="S11" s="5">
         <v>3322159</v>
       </c>
-      <c r="P11" s="5">
+      <c r="T11" s="5">
         <v>5702696</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M12" s="6"/>
+    <row r="12" spans="1:30" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
     </row>
-    <row r="13" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M13" s="6"/>
+    <row r="13" spans="1:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F14" s="6"/>
+    <row r="14" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F15" s="6"/>
+    <row r="15" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="6"/>
+    <row r="16" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="3"/>
-      <c r="F17" s="6"/>
+      <c r="E17" s="3"/>
+      <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4002,14 +6661,14 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="R1:T1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>